--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -171,9 +171,6 @@
     <t>OPQA-4273</t>
   </si>
   <si>
-    <t>From DRA\IPA , Verify that the system is able to merge New STeAM account and Neon Active Facebook account and after merge verify STeAM TRUID is changed</t>
-  </si>
-  <si>
     <t>OPQA-4184</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Verify that user should not be allowed to sign-in to DRA \IPA when user account is locked ||Verify that user should not be allowed to sign-in to DRA \IPA when user account is evicted/Suspended .</t>
+  </si>
+  <si>
+    <t>From DRA\IPA , Verify that the system is able to merge New STeAM account and Neon Active Facebook account and after merge verify STeAM TRUID is changeddd</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +755,10 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -848,7 +848,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\Newworspace17oct\src\test\resources\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
@@ -38,15 +33,9 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>OPQA-4176||OPQA-4178||OPQA-4179||OPQA-4182||OPQA-4187||OPQA-4189 </t>
   </si>
   <si>
-    <t>IPA0001</t>
-  </si>
-  <si>
     <t>Verify that, accessing of the URL  takes the user to DRA application Landing page || Verify that DRA Landing page, displays application branding and logo || Verify that DRA Landing page, contains feature promotion and iconography in the marketing section || Verify that DRA Landing page, displays link to privacy statement and terms of use. || verify that DRA Landing page, displays the message and email id on the DRA landing page "Having trouble with sign-in? please contact DRA_support@thomsonreuters.com "||</t>
   </si>
   <si>
@@ -56,15 +45,6 @@
     <t xml:space="preserve"> Verify that when linking a social with a matching email, if the user click [X] cross mark on the screen then he will be taken back to the DRA Login page. || Verify that text on the modal "Already have an account? .. ||Verify that when linking a social with a matching email, if the user clicks outside the Linking modal on the screen then nothing should happens</t>
   </si>
   <si>
-    <t>IPA0002</t>
-  </si>
-  <si>
-    <t>IPA051</t>
-  </si>
-  <si>
-    <t>IPA053</t>
-  </si>
-  <si>
     <t>OPQA-4188||OPQA-4190</t>
   </si>
   <si>
@@ -83,12 +63,6 @@
     <t>Verify that user can skip the linking by clicking on "Not now button" on the modal "Already have an account? .. || Verify that once the user skips linking then user will not be prompted to link again.</t>
   </si>
   <si>
-    <t>IPA0003</t>
-  </si>
-  <si>
-    <t>IPA0004</t>
-  </si>
-  <si>
     <t>Verify that error message " Incorrect password. Please try again."should be displayed when user enters incorrect password for existing steam account.|| Verify that when user's account is locked due to 10 invalid authentications of existing password,user becomes locked, the user is signed out</t>
   </si>
   <si>
@@ -101,12 +75,6 @@
     <t>Verify that error message " New password should not match current password" should be displayed when user enters the current password in change password field.|| Verify that error message"New password should not match previous 4 passwords" should be displayed when user enters password in change password field which is matching with the previous 4 passwords.</t>
   </si>
   <si>
-    <t>IPA0005</t>
-  </si>
-  <si>
-    <t>IPA054</t>
-  </si>
-  <si>
     <t>OPQA-4233 || OPQA-4271</t>
   </si>
   <si>
@@ -117,57 +85,30 @@
   </si>
   <si>
     <t>Verify that, the account link or merge should not be made, if skipping the linking of an existing social account</t>
-  </si>
-  <si>
-    <t>IPA052</t>
-  </si>
-  <si>
-    <t>IPA0050</t>
-  </si>
-  <si>
-    <t>IPA0051</t>
-  </si>
-  <si>
-    <t>IPA0052</t>
-  </si>
-  <si>
-    <t> OPQA-4180||OPQA-4177</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that user should  not be allowed to sign-in to IPA when email/password combination is incorrect and error message "Invalid Email/Password. Please try again." should be dispalyed as per  DRA Access - conditional text and error message document. ||Verify that user should successfully authenticate to the platform by by supplying correct STeAM credentials (email address + password), on the DRA sign in screen. 
 </t>
   </si>
   <si>
-    <t>IPA0053</t>
-  </si>
-  <si>
     <t>OPQA-4185 ||OPQA-4196</t>
   </si>
   <si>
     <t>Verify that user should not be allowed to access IPA if the STeAM account is not tied to an active subscription with the "DRA_TARGET_DRUG" entitlement (SKU).|| Verify that Error message is displayed to the user, when DRA user who attempts to access DRA without an active DRA entitlement (STeAM SKU)</t>
   </si>
   <si>
-    <t>IPA0054</t>
-  </si>
-  <si>
     <t>OPQA-4218||OPQA-4219</t>
   </si>
   <si>
     <t>Verify that the accounts setting modal should be accessible to users in non-discoverable state||Verify that the accounts setting modal should not initiate on-boarding.</t>
   </si>
   <si>
-    <t>IPA0055</t>
-  </si>
-  <si>
     <t>OPQA-4272</t>
   </si>
   <si>
     <t>From DRA\IPA, Verify that the system is able to merge Activated STeAM account and Neon Active Facebook account and after merge verify STeAM TRUID is changed</t>
   </si>
   <si>
-    <t>IPA0056</t>
-  </si>
-  <si>
     <t>OPQA-4273</t>
   </si>
   <si>
@@ -184,13 +125,67 @@
   </si>
   <si>
     <t>From DRA\IPA , Verify that the system is able to merge New STeAM account and Neon Active Facebook account and after merge verify STeAM TRUID is changeddd</t>
+  </si>
+  <si>
+    <t>IPAIAM0001</t>
+  </si>
+  <si>
+    <t>IPAIAM0002</t>
+  </si>
+  <si>
+    <t>IPAIAM051</t>
+  </si>
+  <si>
+    <t>IPAIAM053</t>
+  </si>
+  <si>
+    <t>IPAIAM0003</t>
+  </si>
+  <si>
+    <t>IPAIAM0004</t>
+  </si>
+  <si>
+    <t>IPAIAM0005</t>
+  </si>
+  <si>
+    <t>IPAIAM054</t>
+  </si>
+  <si>
+    <t>IPAIAM052</t>
+  </si>
+  <si>
+    <t>IPAIAM0050</t>
+  </si>
+  <si>
+    <t>IPAIAM0051</t>
+  </si>
+  <si>
+    <t>IPAIAM0052</t>
+  </si>
+  <si>
+    <t>IPAIAM0053</t>
+  </si>
+  <si>
+    <t>IPAIAM0054</t>
+  </si>
+  <si>
+    <t>IPAIAM0055</t>
+  </si>
+  <si>
+    <t>IPAIAM0056</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>OPQA-4180||OPQA-4177</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,10 +366,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +400,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,14 +575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -598,7 +591,7 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,243 +608,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="90">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="90">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="120">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="45">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -866,24 +859,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>TCID</t>
   </si>
@@ -179,13 +179,22 @@
   </si>
   <si>
     <t>OPQA-4180||OPQA-4177</t>
+  </si>
+  <si>
+    <t>IPAIAM0057</t>
+  </si>
+  <si>
+    <t>OPQA-4525||OPQA-4526||OPQA-4527</t>
+  </si>
+  <si>
+    <t>Verify that the STeAM Step Up Auth Modal should be presented to the user without a pre-populated email address when user has a valid Neon session token and is navigating within the same browser window.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +375,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -400,6 +410,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -591,7 +602,7 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -623,7 +634,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="90">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -638,7 +649,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="75">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -653,7 +664,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="90">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -668,7 +679,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="45">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -683,7 +694,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="75">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -698,7 +709,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="90">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -713,7 +724,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -728,7 +739,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -743,7 +754,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -758,7 +769,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="45">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -773,7 +784,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="120">
+    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -788,7 +799,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="75">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -803,7 +814,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="45">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -818,7 +829,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="45">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -833,7 +844,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -847,6 +858,21 @@
         <v>52</v>
       </c>
       <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -859,24 +885,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Verify that the STeAM Step Up Auth Modal should be presented to the user without a pre-populated email address when user has a valid Neon session token and is navigating within the same browser window.</t>
+  </si>
+  <si>
+    <t>OPQA-4554||OPQA-4555||OPQA-4553||OPQA-4541</t>
+  </si>
+  <si>
+    <t>Verify that error message "Invalid email/password. Please try again." should be displayed when user enters incorrect password.||Verify that error message should be displayed when user provides correct STeAM credentials but the STeAM account is not entitled to DRA\IPA application. As per wireframe||Verify that the DRA\IPA application overview page shall be able to be opened in a separate browser window on demand. (e.g. from a link on the Step Up Authentication Modal)|| user be should be presented the appropriate "not entitled" modal as an error overlay on the target application sign in page.</t>
+  </si>
+  <si>
+    <t>IPAIAM0058</t>
   </si>
 </sst>
 </file>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +882,21 @@
         <v>52</v>
       </c>
       <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>IPAIAM0058</t>
+  </si>
+  <si>
+    <t>OPQA-4561</t>
+  </si>
+  <si>
+    <t>Verify that STeAM account locked message sholud be displayed in an overlay as below " Your account has been locked for 30 minutes due to too many failed attempts." &lt;Okay&gt;</t>
+  </si>
+  <si>
+    <t>OPQA-4563</t>
+  </si>
+  <si>
+    <t>Verify that when STeAM account email is in an unverified status,below error message should be displayed Your email address has not yet been verified.</t>
+  </si>
+  <si>
+    <t>IPAIAM0059</t>
+  </si>
+  <si>
+    <t>IPAIAM0060</t>
   </si>
 </sst>
 </file>
@@ -596,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +915,36 @@
         <v>52</v>
       </c>
       <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\Newworspace17oct\src\test\resources\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>TCID</t>
   </si>
@@ -215,6 +220,12 @@
   </si>
   <si>
     <t>IPAIAM0060</t>
+  </si>
+  <si>
+    <t>IPAIAM055</t>
+  </si>
+  <si>
+    <t>OPQA-4528||OPQA-4529||OPQA-4530||OPQA-4536||OPQA-4538</t>
   </si>
 </sst>
 </file>
@@ -370,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,75 +792,75 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -858,13 +869,13 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
@@ -873,13 +884,13 @@
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>52</v>
@@ -888,13 +899,13 @@
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>52</v>
@@ -903,13 +914,13 @@
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>52</v>
@@ -918,13 +929,13 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>52</v>
@@ -933,18 +944,33 @@
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\Newworspace17oct\src\test\resources\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
@@ -204,12 +199,6 @@
     <t>IPAIAM0058</t>
   </si>
   <si>
-    <t>OPQA-4561</t>
-  </si>
-  <si>
-    <t>Verify that STeAM account locked message sholud be displayed in an overlay as below " Your account has been locked for 30 minutes due to too many failed attempts." &lt;Okay&gt;</t>
-  </si>
-  <si>
     <t>OPQA-4563</t>
   </si>
   <si>
@@ -226,6 +215,12 @@
   </si>
   <si>
     <t>OPQA-4528||OPQA-4529||OPQA-4530||OPQA-4536||OPQA-4538</t>
+  </si>
+  <si>
+    <t>OPQA-4561||OPQA-4562</t>
+  </si>
+  <si>
+    <t>Verify that STeAM account locked message sholud be displayed in an overlay as below " Your account has been locked for 30 minutes due to too many failed attempts." &lt;Okay&gt;||Verify that STeAM account is suspended message sholud be displayed in an overlay as below " Your account has been evicted. To get help, please email ProjectNeon@tr.com. &lt;Okay&gt;</t>
   </si>
 </sst>
 </file>
@@ -381,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +789,10 @@
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -912,7 +907,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -927,7 +922,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -942,15 +937,15 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>52</v>
@@ -959,13 +954,13 @@
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\Newworspace17oct\src\test\resources\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>TCID</t>
   </si>
@@ -221,16 +226,41 @@
   </si>
   <si>
     <t>Verify that STeAM account locked message sholud be displayed in an overlay as below " Your account has been locked for 30 minutes due to too many failed attempts." &lt;Okay&gt;||Verify that STeAM account is suspended message sholud be displayed in an overlay as below " Your account has been evicted. To get help, please email ProjectNeon@tr.com. &lt;Okay&gt;</t>
+  </si>
+  <si>
+    <t>OPQA-1934||
+OPQA-1935&amp;OPQA-3687||
+OPQA-4230||OPQA-4229||
+OPQA-4231||OPQA-4232||
+OPQA-4636||OPQA-4261||
+OPQA-4244||OPQA-4264||
+OPQA-4265||OPQA-4237||
+OPQA-4239||OPQA-4240||
+OPQA-4246||OPQA-4248||
+OPQA-4252</t>
+  </si>
+  <si>
+    <t>Verify that Forgot your password? Link is clickable on NEON Landing page and End note landing page||Verify that the system is navigating to Forgot Password page or not|| after clicking on Forgot your password? Link&amp;Verify that||the system should support a ENW password reset workflow with the following configurations||Verify that system should not inform user that entered email is not found.||Verify that user should be able to enter email address in Forgot password page.||Verify that  forget password service should send a forgot password email when the email entered is registered in the system||Verify that the platform password reset service should send a platform forget password email with branding that corresponds with the originating application as per wireframe||Verify that When the password reset token in the email is valid|| upon clicking the password reset link in the the platform forget password email|| the user shall be taken to the External Password Reset Page||Verify that External Password Reset Page should have a new password field where the user enters their new password.||Verify that when reset Password Token already used user should be taken to sign in screen||Verify that upon successful submission of a password change|| The user should receive a password change confirmation email to the user's primary email address with branding that corresponds with the application that the user completed the password change||Verify that the password change confirmation email should reference the fact that credentials are shared across all products.||Verify that when the password reset token in the email is expired or already used|| upon clicking the password reset link in the the platform forget password email|| the user should be taken to the External Invalid Password Reset Token Page.||Verify that the email address on the External Invalid Password Reset Token Page should be pre-populated with the email address that matches the email that the forgot password email was sent.||Verify that user who clicks the submit button on the the External Invalid Password Reset Token page|| should be taken to the target application sign in page.||Verify that when Email address is known from password reset token||error message 'The email address is prepopulated.' should be displayed and email address field should be editable||Verify that when Email address is not known from password reset token||email address field should be blank and user should be able to enter any email address||Verify that error message Please enter a valid email address.should be displayed in red color when user enters email address in wrong format</t>
+  </si>
+  <si>
+    <t>IPAIAM100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -286,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -376,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +999,21 @@
         <v>52</v>
       </c>
       <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\Newworspace17oct\src\test\resources\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -244,6 +239,15 @@
   </si>
   <si>
     <t>IPAIAM100</t>
+  </si>
+  <si>
+    <t>IPAIAM0006</t>
+  </si>
+  <si>
+    <t>OPQA-4531||OPQA-4533||OPQA-4547||OPQA-4550</t>
+  </si>
+  <si>
+    <t>Verify that the new STeAM step up authentication modal should include a link to initiate the EndNote supported forgot password flow. || Verify that the "Sign in to Target Druggability" modal should match with wireframe || Verify that the target application product overview page should be opened in a separate browser window when User clicks "Learn more" in any of the Step up related messages/modals.||Verify that the DRA\IPA application overview page should be opened in a separate browser window when user has a valid session token on the Neon platform</t>
   </si>
 </sst>
 </file>
@@ -409,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1018,21 @@
         <v>52</v>
       </c>
       <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>TCID</t>
   </si>
@@ -248,6 +248,33 @@
   </si>
   <si>
     <t>Verify that the new STeAM step up authentication modal should include a link to initiate the EndNote supported forgot password flow. || Verify that the "Sign in to Target Druggability" modal should match with wireframe || Verify that the target application product overview page should be opened in a separate browser window when User clicks "Learn more" in any of the Step up related messages/modals.||Verify that the DRA\IPA application overview page should be opened in a separate browser window when user has a valid session token on the Neon platform</t>
+  </si>
+  <si>
+    <t>IPAIAMCC001</t>
+  </si>
+  <si>
+    <t>OPQA-5169||OPQA-5170</t>
+  </si>
+  <si>
+    <t>IPAIAMCC002</t>
+  </si>
+  <si>
+    <t>Verify that error messages/validation alerts "Please enter at least 2 characters for name" should be displayed when 'name' field is empty or 'name' field contains less than two characters.||Verify that error messages/validation alerts "Please enter at least 2 characters for Organization Name " should be displayed when 'Organization Name' field is empty or 'Organization Name' field contains less than two characters.</t>
+  </si>
+  <si>
+    <t>OPQA-5171||OPQA-5172</t>
+  </si>
+  <si>
+    <t>Verify that error messages/validation alerts " Incorrect email address format. Please try again." should be displayed when user enters incorrect email address.||Verify that error messages/validation alerts "Incorrect phone number format. Please try again.." should be displayed when user enters incorrect phone number.</t>
+  </si>
+  <si>
+    <t>IPAIAMCC003</t>
+  </si>
+  <si>
+    <t>Verify that the user should be able to select the issue type/category of the issue as an option</t>
+  </si>
+  <si>
+    <t>OPQA-5174</t>
   </si>
 </sst>
 </file>
@@ -311,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -325,6 +352,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +942,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -929,7 +957,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -944,7 +972,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -959,7 +987,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -974,7 +1002,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -989,7 +1017,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1004,7 +1032,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -1019,7 +1047,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1033,6 +1061,53 @@
         <v>52</v>
       </c>
       <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1041,6 +1116,7 @@
     <hyperlink ref="B8" r:id="rId3" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-4223"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>TCID</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>OPQA-5174</t>
+  </si>
+  <si>
+    <t>IPAIAMCC004</t>
+  </si>
+  <si>
+    <t>OPQA-5229||OPQA-5230</t>
+  </si>
+  <si>
+    <t>Verify that Page should change header title for different title||Ensure that the page has "Support Request" and "Call us" sections.</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -353,6 +362,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,14 +1105,14 @@
       <c r="E26" s="2"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1108,6 +1120,22 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -700,7 +700,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TCID</t>
   </si>
@@ -284,6 +284,27 @@
   </si>
   <si>
     <t>Verify that Page should change header title for different title||Ensure that the page has "Support Request" and "Call us" sections.</t>
+  </si>
+  <si>
+    <t>OPQA-5154||OPQA-5230</t>
+  </si>
+  <si>
+    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.</t>
+  </si>
+  <si>
+    <t>OPQA-5168 || OPQA-5227</t>
+  </si>
+  <si>
+    <t>Verify that the web form provided to user should be application specific with following required fields
+1.Name 2.Organization 3.Contact details (email, telephone) 4.Issue Category 5.Country
+6.Description of issue ( a free form text box where a user can describe why they are contacting support) ||
+Verify that the web form provided to user will be application specific with following required fields (Name, Organization, email, telephone, Issue Category, Country, Description of issue)</t>
+  </si>
+  <si>
+    <t>IPAIAM070</t>
+  </si>
+  <si>
+    <t>IPAIAM071</t>
   </si>
 </sst>
 </file>
@@ -697,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1157,36 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>IPAIAM071</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2"/>
     </row>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\NewWorkspace09Mar\1p-ui-automation\src\test\resources\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>TCID</t>
   </si>
@@ -248,63 +253,6 @@
   </si>
   <si>
     <t>Verify that the new STeAM step up authentication modal should include a link to initiate the EndNote supported forgot password flow. || Verify that the "Sign in to Target Druggability" modal should match with wireframe || Verify that the target application product overview page should be opened in a separate browser window when User clicks "Learn more" in any of the Step up related messages/modals.||Verify that the DRA\IPA application overview page should be opened in a separate browser window when user has a valid session token on the Neon platform</t>
-  </si>
-  <si>
-    <t>IPAIAMCC001</t>
-  </si>
-  <si>
-    <t>OPQA-5169||OPQA-5170</t>
-  </si>
-  <si>
-    <t>IPAIAMCC002</t>
-  </si>
-  <si>
-    <t>Verify that error messages/validation alerts "Please enter at least 2 characters for name" should be displayed when 'name' field is empty or 'name' field contains less than two characters.||Verify that error messages/validation alerts "Please enter at least 2 characters for Organization Name " should be displayed when 'Organization Name' field is empty or 'Organization Name' field contains less than two characters.</t>
-  </si>
-  <si>
-    <t>OPQA-5171||OPQA-5172</t>
-  </si>
-  <si>
-    <t>Verify that error messages/validation alerts " Incorrect email address format. Please try again." should be displayed when user enters incorrect email address.||Verify that error messages/validation alerts "Incorrect phone number format. Please try again.." should be displayed when user enters incorrect phone number.</t>
-  </si>
-  <si>
-    <t>IPAIAMCC003</t>
-  </si>
-  <si>
-    <t>Verify that the user should be able to select the issue type/category of the issue as an option</t>
-  </si>
-  <si>
-    <t>OPQA-5174</t>
-  </si>
-  <si>
-    <t>IPAIAMCC004</t>
-  </si>
-  <si>
-    <t>OPQA-5229||OPQA-5230</t>
-  </si>
-  <si>
-    <t>Verify that Page should change header title for different title||Ensure that the page has "Support Request" and "Call us" sections.</t>
-  </si>
-  <si>
-    <t>OPQA-5154||OPQA-5230</t>
-  </si>
-  <si>
-    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.</t>
-  </si>
-  <si>
-    <t>OPQA-5168 || OPQA-5227</t>
-  </si>
-  <si>
-    <t>Verify that the web form provided to user should be application specific with following required fields
-1.Name 2.Organization 3.Contact details (email, telephone) 4.Issue Category 5.Country
-6.Description of issue ( a free form text box where a user can describe why they are contacting support) ||
-Verify that the web form provided to user will be application specific with following required fields (Name, Organization, email, telephone, Issue Category, Country, Description of issue)</t>
-  </si>
-  <si>
-    <t>IPAIAM070</t>
-  </si>
-  <si>
-    <t>IPAIAM071</t>
   </si>
   <si>
     <t>N</t>
@@ -371,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -384,10 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -978,7 +922,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -993,7 +937,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1008,7 +952,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1023,7 +967,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1038,7 +982,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -1053,7 +997,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1068,7 +1012,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -1083,7 +1027,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1097,99 +1041,6 @@
         <v>52</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/xls/IPAIAM.xlsx
+++ b/src/test/resources/xls/IPAIAM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb94731\git\NewWorkspace09Mar\1p-ui-automation\src\test\resources\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="15576" windowHeight="6216"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -228,21 +223,6 @@
     <t>Verify that STeAM account locked message sholud be displayed in an overlay as below " Your account has been locked for 30 minutes due to too many failed attempts." &lt;Okay&gt;||Verify that STeAM account is suspended message sholud be displayed in an overlay as below " Your account has been evicted. To get help, please email ProjectNeon@tr.com. &lt;Okay&gt;</t>
   </si>
   <si>
-    <t>OPQA-1934||
-OPQA-1935&amp;OPQA-3687||
-OPQA-4230||OPQA-4229||
-OPQA-4231||OPQA-4232||
-OPQA-4636||OPQA-4261||
-OPQA-4244||OPQA-4264||
-OPQA-4265||OPQA-4237||
-OPQA-4239||OPQA-4240||
-OPQA-4246||OPQA-4248||
-OPQA-4252</t>
-  </si>
-  <si>
-    <t>Verify that Forgot your password? Link is clickable on NEON Landing page and End note landing page||Verify that the system is navigating to Forgot Password page or not|| after clicking on Forgot your password? Link&amp;Verify that||the system should support a ENW password reset workflow with the following configurations||Verify that system should not inform user that entered email is not found.||Verify that user should be able to enter email address in Forgot password page.||Verify that  forget password service should send a forgot password email when the email entered is registered in the system||Verify that the platform password reset service should send a platform forget password email with branding that corresponds with the originating application as per wireframe||Verify that When the password reset token in the email is valid|| upon clicking the password reset link in the the platform forget password email|| the user shall be taken to the External Password Reset Page||Verify that External Password Reset Page should have a new password field where the user enters their new password.||Verify that when reset Password Token already used user should be taken to sign in screen||Verify that upon successful submission of a password change|| The user should receive a password change confirmation email to the user's primary email address with branding that corresponds with the application that the user completed the password change||Verify that the password change confirmation email should reference the fact that credentials are shared across all products.||Verify that when the password reset token in the email is expired or already used|| upon clicking the password reset link in the the platform forget password email|| the user should be taken to the External Invalid Password Reset Token Page.||Verify that the email address on the External Invalid Password Reset Token Page should be pre-populated with the email address that matches the email that the forgot password email was sent.||Verify that user who clicks the submit button on the the External Invalid Password Reset Token page|| should be taken to the target application sign in page.||Verify that when Email address is known from password reset token||error message 'The email address is prepopulated.' should be displayed and email address field should be editable||Verify that when Email address is not known from password reset token||email address field should be blank and user should be able to enter any email address||Verify that error message Please enter a valid email address.should be displayed in red color when user enters email address in wrong format</t>
-  </si>
-  <si>
     <t>IPAIAM100</t>
   </si>
   <si>
@@ -256,13 +236,20 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>OPQA-1934||OPQA-1935&amp;OPQA-3687||OPQA-4230||OPQA-4229||OPQA-4231||OPQA-4232||OPQA-4636||
+OPQA-1950||OPQA-1951||OPQA-1953||OPQA-1949||OPQA-4261&amp;&amp;OPQA-1948||OPQA-4244||OPQA-4264||OPQA-4265||OPQA-4237||OPQA-4239||OPQA-4240||OPQA-4246||OPQA-4248||OPQA-4252||OPQA-5399||OPQA-5400</t>
+  </si>
+  <si>
+    <t>Verify that Forgot your password? Link is clickable on NEON Landing page and End note landing page||Verify that the system is navigating to Forgot Password page or not, after clicking on Forgot your password? Link&amp;Verify that,the system should support a ENW password reset workflow with the following configurations||Verify that system should not inform user that entered email is not found.||Verify that user should be able to enter email address in Forgot password page.||Verify that  forget password service should send a forgot password email when the email entered is registered in the system||Verify that the platform password reset service should send a platform forget password email with branding that corresponds with the originating application as per wireframe||Verify that When the password reset token in the email is valid, upon clicking the password reset link in the the platform forget password email, the user shall be taken to the External Password Reset Page||Verify Password must have at least one special character from !@#$%^*()~`{}[]| in reset password page||Verify  Password must contain at least one number is ALWAYS enforced in password reset page||Verify Password must have at least one alphabet character either upper or lower case is ALWAYS enforced in reset password page.||Verify Password Maximum Length of 95 characters is ALWAYS enforced in reset password page.||Verify that External Password Reset Page should have a new password field where the user enters their new password.&amp;&amp;Verify that the Password minimum length of 8 characters is ALWAYS enforced in reset password page.||Verify that when reset Password Token already used user should be taken to sign in screen||Verify that upon successful submission of a password change, The user should receive a password change confirmation email to the user's primary email address with branding that corresponds with the application that the user completed the password change||Verify that the password change confirmation email should reference the fact that credentials are shared across all products.||Verify that when the password reset token in the email is expired or already used, upon clicking the password reset link in the the platform forget password email, the user should be taken to the External Invalid Password Reset Token Page.||Verify that the email address on the External Invalid Password Reset Token Page should be pre-populated with the email address that matches the email that the forgot password email was sent.||Verify that user who clicks the submit button on the the External Invalid Password Reset Token page, should be taken to the target application sign in page.||Verify that when Email address is known from password reset token,error message 'The email address is prepopulated.' should be displayed and email address field should be editable||Verify that when Email address is not known from password reset token,email address field should be blank and user should be able to enter any email address||Verify that error message Please enter a valid email address.should be displayed in red color when user enters email address in wrong format||Verify that error message New password should not match current password. when enter Old and New password are same in reset password page.||Verify that error message New password should not match previous 4 passwords. when enter new password match with previous four passwords in reset password page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,10 +440,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +474,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,23 +649,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="63" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="115.2">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -712,7 +697,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="72">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -727,7 +712,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -742,7 +727,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -753,11 +738,11 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -772,7 +757,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -787,7 +772,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="86.4">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -802,7 +787,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -817,7 +802,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -832,7 +817,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -847,7 +832,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -862,7 +847,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.2">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -877,7 +862,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="100.8">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -892,7 +877,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="72">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -907,7 +892,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.2">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -922,7 +907,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.2">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -937,7 +922,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="43.2">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -952,7 +937,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="43.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -967,7 +952,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="129.6">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -982,7 +967,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="86.4">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -997,7 +982,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.2">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1012,30 +997,30 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="216">
       <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="115.2">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>52</v>
@@ -1054,24 +1039,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
